--- a/medicine/Enfance/Rae_Carson/Rae_Carson.xlsx
+++ b/medicine/Enfance/Rae_Carson/Rae_Carson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rae Carson, née le 17 août 1973 à Oakland en Californie, est une écrivaine américaine de fantasy et de science-fiction.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,26 +553,253 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers De braises et de ronces
-Trilogie De braises et de ronces
-La Fille de braises et de ronces, Robert Laffont, 2012 ((en) The Girl of Fire and Thorns, Greenwillow Books/HarperCollins, 2011)
+          <t>Univers De braises et de ronces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Trilogie De braises et de ronces</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Fille de braises et de ronces, Robert Laffont, 2012 ((en) The Girl of Fire and Thorns, Greenwillow Books/HarperCollins, 2011)
 La Couronne de flammes, Robert Laffont, 2013 ((en) The Crown of Embers, Greenwillow Books/HarperCollins, 2012)
-Le Royaume des larmes, Robert Laffont, 2014 ((en) The Bitter Kingdom, Greenwillow Books/HarperCollins, 2013)
-Recueils de nouvelles
-(en) The Girl of Fire and Thorns Stories, Greenwillow Books/HarperCollins, 2014
-Romans indépendants
-(en) The Empire of Dreams, Greenwillow Books/HarperCollins, 2020
-Univers Star Wars
-Novélisation de film
-L'Ascension de Skywalker, Fleuve, 2020 ((en) The Rise of Skywalker, 2020)  (ISBN 978-2-265-15487-2)Réédition, Pocket, coll. « Star Wars » no 181, 2021  (ISBN 978-2-266-31607-1)
-Romans indépendants
-Morts ou vifs, Pocket, coll. « Star Wars » no 172, 2019 ((en) Most Wanted, Del Rey Books, 2018)  (ISBN 978-2-266-29866-7)
-Série Gold Seer
-(en) Walk on Earth a Stranger, Greenwillow Books/HarperCollins, 2015
+Le Royaume des larmes, Robert Laffont, 2014 ((en) The Bitter Kingdom, Greenwillow Books/HarperCollins, 2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rae_Carson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rae_Carson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers De braises et de ronces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Girl of Fire and Thorns Stories, Greenwillow Books/HarperCollins, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rae_Carson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rae_Carson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers De braises et de ronces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Empire of Dreams, Greenwillow Books/HarperCollins, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rae_Carson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rae_Carson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Novélisation de film</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Ascension de Skywalker, Fleuve, 2020 ((en) The Rise of Skywalker, 2020)  (ISBN 978-2-265-15487-2)Réédition, Pocket, coll. « Star Wars » no 181, 2021  (ISBN 978-2-266-31607-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rae_Carson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rae_Carson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Morts ou vifs, Pocket, coll. « Star Wars » no 172, 2019 ((en) Most Wanted, Del Rey Books, 2018)  (ISBN 978-2-266-29866-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rae_Carson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rae_Carson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Gold Seer</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Walk on Earth a Stranger, Greenwillow Books/HarperCollins, 2015
 (en) Like a River Glorious, Greenwillow Books/HarperCollins, 2016
-(en) Into the Bright Unknown, Greenwillow Books/HarperCollins, 2017
-Romans indépendants
-(en) Any Sign of Life, 2021</t>
+(en) Into the Bright Unknown, Greenwillow Books/HarperCollins, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rae_Carson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rae_Carson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Any Sign of Life, 2021</t>
         </is>
       </c>
     </row>
